--- a/aula/GRAMMAR-TSP.xlsx
+++ b/aula/GRAMMAR-TSP.xlsx
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,66 +1039,66 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1117,7 +1117,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>15</v>
       </c>
@@ -1167,21 +1167,21 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -2049,7 +2049,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A18:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3145,11 +3145,11 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B32" activeCellId="1" sqref="A18:I18 B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/aula/GRAMMAR-TSP.xlsx
+++ b/aula/GRAMMAR-TSP.xlsx
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18:I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1118,21 +1118,21 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -2049,14 +2049,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A18:I18 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A15:I15 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="6.57"/>
@@ -2074,7 +2074,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="11" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="11" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="11" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="11" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="11" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="11" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="11" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="11" width="6.57"/>
@@ -3149,12 +3149,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B32" activeCellId="1" sqref="A18:I18 B32"/>
+      <selection pane="bottomRight" activeCell="B32" activeCellId="1" sqref="A15:I15 B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="40.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="6.28"/>

--- a/aula/GRAMMAR-TSP.xlsx
+++ b/aula/GRAMMAR-TSP.xlsx
@@ -883,7 +883,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:I15"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,36 +1135,36 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -2049,7 +2049,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A15:I15 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A16:I17 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3145,11 +3145,11 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B32" activeCellId="1" sqref="A15:I15 B32"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="1" sqref="A16:I17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/aula/GRAMMAR-TSP.xlsx
+++ b/aula/GRAMMAR-TSP.xlsx
@@ -556,7 +556,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +567,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF158466"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -678,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -699,7 +705,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -707,11 +733,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -727,15 +757,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,7 +773,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,35 +801,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1184,145 +1214,145 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -1357,343 +1387,343 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
+      <c r="A41" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
+      <c r="A43" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
+      <c r="A45" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
+      <c r="A47" s="8" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="n">
+      <c r="A49" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
+      <c r="A50" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
@@ -1728,235 +1758,235 @@
       <c r="I52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="n">
+      <c r="A53" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
+      <c r="A54" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="n">
+      <c r="A55" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
+      <c r="A56" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
+      <c r="A57" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
+      <c r="A58" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
+      <c r="A59" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
+      <c r="A60" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
+      <c r="A61" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
+      <c r="A62" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="n">
+      <c r="A63" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
+      <c r="A64" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="n">
+      <c r="A65" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
+      <c r="A66" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="10"/>
+      <c r="B67" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -2049,1082 +2079,1082 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A16:I17 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A27:I27 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="11" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="11" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="11" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="11" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="11" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="11" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="11" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="11" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="11" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="11" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="11" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="11" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="11" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="17" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="17" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="17" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="17" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="17" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="17" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="17" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="17" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="17" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="17" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="17" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="17" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="17" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="15"/>
+      <c r="AB1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="18"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="21"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="18"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="18"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="18"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="18"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="18"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="18"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="18"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="18"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="18"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3149,515 +3179,515 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" activeCellId="1" sqref="A16:I17 C7"/>
+      <selection pane="bottomRight" activeCell="C11" activeCellId="1" sqref="A27:I27 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="40.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="22" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="40.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="28" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="AC2" s="22" t="s">
+      <c r="D2" s="34"/>
+      <c r="AC2" s="28" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="AC4" s="22" t="s">
+      <c r="D4" s="34"/>
+      <c r="AC4" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="AC5" s="22" t="s">
+      <c r="D5" s="34"/>
+      <c r="AC5" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="AC6" s="22" t="s">
+      <c r="D6" s="34"/>
+      <c r="AC6" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" s="22" t="s">
+      <c r="AC7" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="AC8" s="22" t="s">
+      <c r="D8" s="34"/>
+      <c r="AC8" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="AC9" s="22" t="s">
+      <c r="D9" s="34"/>
+      <c r="AC9" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC10" s="22" t="s">
+      <c r="AC10" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="AC11" s="22" t="s">
+      <c r="D11" s="34"/>
+      <c r="AC11" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC12" s="22" t="s">
+      <c r="AC12" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC13" s="22" t="s">
+      <c r="AC13" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="AC14" s="22" t="s">
+      <c r="D14" s="34"/>
+      <c r="AC14" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" s="22" t="s">
+      <c r="AC15" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC16" s="22" t="s">
+      <c r="AC16" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="AC17" s="22" t="s">
+      <c r="D17" s="34"/>
+      <c r="AC17" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC18" s="22" t="s">
+      <c r="AC18" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="AC19" s="22" t="s">
+      <c r="D19" s="34"/>
+      <c r="AC19" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="AC20" s="22" t="s">
+      <c r="D20" s="34"/>
+      <c r="AC20" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC21" s="22" t="s">
+      <c r="AC21" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC22" s="22" t="s">
+      <c r="AC22" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC23" s="22" t="s">
+      <c r="AC23" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AC24" s="22" t="s">
+      <c r="AC24" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="AC25" s="22" t="s">
+      <c r="D25" s="34"/>
+      <c r="AC25" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="AC26" s="22" t="s">
+      <c r="D26" s="34"/>
+      <c r="AC26" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="AC27" s="22" t="s">
+      <c r="D27" s="34"/>
+      <c r="AC27" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="AC28" s="22" t="s">
+      <c r="D28" s="34"/>
+      <c r="AC28" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="AC29" s="22" t="s">
+      <c r="D29" s="34"/>
+      <c r="AC29" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="AC30" s="22" t="s">
+      <c r="D30" s="34"/>
+      <c r="AC30" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="AC31" s="22" t="s">
+      <c r="D31" s="34"/>
+      <c r="AC31" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="34"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/aula/GRAMMAR-TSP.xlsx
+++ b/aula/GRAMMAR-TSP.xlsx
@@ -684,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,6 +705,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -721,31 +725,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -912,8 +916,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27:I27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="A66:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1355,590 +1359,590 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+      <c r="A40" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+      <c r="A43" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
+      <c r="A44" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
+      <c r="A45" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
+      <c r="A47" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="n">
+      <c r="A48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
+      <c r="A49" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="n">
+      <c r="A50" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="13" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
+      <c r="A51" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
+      <c r="A52" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="n">
+      <c r="A53" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="n">
+      <c r="A54" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="n">
+      <c r="A55" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="n">
+      <c r="A56" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="13" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="n">
+      <c r="A58" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="n">
+      <c r="A59" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="n">
+      <c r="A60" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="n">
+      <c r="A61" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="n">
+      <c r="A62" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="n">
+      <c r="A64" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="15" t="s">
@@ -1952,10 +1956,10 @@
       <c r="I64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -1969,24 +1973,24 @@
       <c r="I65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="n">
+      <c r="A66" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="16"/>
+      <c r="B67" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -2079,1082 +2083,1082 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A27:I27 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A66:I66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="17" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="17" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="17" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="17" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="17" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="17" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="17" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="17" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="17" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="17" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="17" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="17" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="17" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="18" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="18" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="18" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="18" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="18" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="18" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="18" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="18" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="18" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="18" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="18" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="18" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="18" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="18" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="18" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="21"/>
+      <c r="AB1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3175,519 +3179,519 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" activeCellId="1" sqref="A27:I27 C11"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A31" activeCellId="1" sqref="A66:I66 A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="40.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="28" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="40.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="29" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="29" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="AC2" s="28" t="s">
+      <c r="D2" s="35"/>
+      <c r="AC2" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AC3" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="AC4" s="28" t="s">
+      <c r="D4" s="35"/>
+      <c r="AC4" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="AC5" s="28" t="s">
+      <c r="D5" s="35"/>
+      <c r="AC5" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="AC6" s="28" t="s">
+      <c r="D6" s="35"/>
+      <c r="AC6" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" s="28" t="s">
+      <c r="AC7" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="AC8" s="28" t="s">
+      <c r="D8" s="35"/>
+      <c r="AC8" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="AC9" s="28" t="s">
+      <c r="D9" s="35"/>
+      <c r="AC9" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC10" s="28" t="s">
+      <c r="AC10" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="AC11" s="28" t="s">
+      <c r="D11" s="35"/>
+      <c r="AC11" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC12" s="28" t="s">
+      <c r="AC12" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC13" s="28" t="s">
+      <c r="AC13" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="AC14" s="28" t="s">
+      <c r="D14" s="35"/>
+      <c r="AC14" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" s="28" t="s">
+      <c r="AC15" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC16" s="28" t="s">
+      <c r="AC16" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="AC17" s="28" t="s">
+      <c r="D17" s="35"/>
+      <c r="AC17" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC18" s="28" t="s">
+      <c r="AC18" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="AC19" s="28" t="s">
+      <c r="D19" s="35"/>
+      <c r="AC19" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="AC20" s="28" t="s">
+      <c r="D20" s="35"/>
+      <c r="AC20" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC21" s="28" t="s">
+      <c r="AC21" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC22" s="28" t="s">
+      <c r="AC22" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC23" s="28" t="s">
+      <c r="AC23" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AC24" s="28" t="s">
+      <c r="AC24" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="AC25" s="28" t="s">
+      <c r="D25" s="35"/>
+      <c r="AC25" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="AC26" s="28" t="s">
+      <c r="D26" s="35"/>
+      <c r="AC26" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="AC27" s="28" t="s">
+      <c r="D27" s="35"/>
+      <c r="AC27" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="AC28" s="28" t="s">
+      <c r="D28" s="35"/>
+      <c r="AC28" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="AC29" s="28" t="s">
+      <c r="D29" s="35"/>
+      <c r="AC29" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="AC30" s="28" t="s">
+      <c r="D30" s="35"/>
+      <c r="AC30" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="AC31" s="28" t="s">
+      <c r="D31" s="35"/>
+      <c r="AC31" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="35"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/aula/GRAMMAR-TSP.xlsx
+++ b/aula/GRAMMAR-TSP.xlsx
@@ -556,7 +556,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,12 +567,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF158466"/>
         <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -684,7 +678,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -709,46 +703,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,15 +715,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,7 +731,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,35 +759,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="A66:I66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1730,68 +1684,68 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+      <c r="A51" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+      <c r="A53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+      <c r="A54" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -1873,104 +1827,104 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
+      <c r="A60" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
+      <c r="A61" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
+      <c r="A62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
+      <c r="A63" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="n">
+      <c r="A64" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="n">
+      <c r="A65" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -1979,18 +1933,18 @@
       <c r="B66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="17"/>
+      <c r="B67" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -2083,1082 +2037,1082 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A66:I66 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A53:I54 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="18" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="18" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="18" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="18" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="18" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="18" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="18" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="18" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="18" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="18" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="18" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="18" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="18" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="18" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="18" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="8" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="8" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="8" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="8" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="8" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="8" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="8" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="8" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="8" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="8" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="8" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="8" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="8" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="22"/>
+      <c r="AB1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="25"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="25"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="25"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="25"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="25"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="25"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="25"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="25"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="28"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="25"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="25"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="25"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="25"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="25"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="25"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="25"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="25"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="25"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="25"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="25"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="25"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="25"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="25"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="25"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="25"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="25"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="25"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="25"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="25"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3183,515 +3137,515 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A31" activeCellId="1" sqref="A66:I66 A31"/>
+      <selection pane="bottomRight" activeCell="A24" activeCellId="1" sqref="A53:I54 A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="40.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="29" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="29" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="40.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="19" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="AC2" s="29" t="s">
+      <c r="D2" s="25"/>
+      <c r="AC2" s="19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" s="29" t="s">
+      <c r="AC3" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="AC4" s="29" t="s">
+      <c r="D4" s="25"/>
+      <c r="AC4" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="AC5" s="29" t="s">
+      <c r="D5" s="25"/>
+      <c r="AC5" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="AC6" s="29" t="s">
+      <c r="D6" s="25"/>
+      <c r="AC6" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" s="29" t="s">
+      <c r="AC7" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="AC8" s="29" t="s">
+      <c r="D8" s="25"/>
+      <c r="AC8" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="AC9" s="29" t="s">
+      <c r="D9" s="25"/>
+      <c r="AC9" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC10" s="29" t="s">
+      <c r="AC10" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="AC11" s="29" t="s">
+      <c r="D11" s="25"/>
+      <c r="AC11" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC12" s="29" t="s">
+      <c r="AC12" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC13" s="29" t="s">
+      <c r="AC13" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="AC14" s="29" t="s">
+      <c r="D14" s="25"/>
+      <c r="AC14" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" s="29" t="s">
+      <c r="AC15" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC16" s="29" t="s">
+      <c r="AC16" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="AC17" s="29" t="s">
+      <c r="D17" s="25"/>
+      <c r="AC17" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC18" s="29" t="s">
+      <c r="AC18" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="AC19" s="29" t="s">
+      <c r="D19" s="25"/>
+      <c r="AC19" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="AC20" s="29" t="s">
+      <c r="D20" s="25"/>
+      <c r="AC20" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC21" s="29" t="s">
+      <c r="AC21" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC22" s="29" t="s">
+      <c r="AC22" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC23" s="29" t="s">
+      <c r="AC23" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AC24" s="29" t="s">
+      <c r="AC24" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="AC25" s="29" t="s">
+      <c r="D25" s="25"/>
+      <c r="AC25" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="AC26" s="29" t="s">
+      <c r="D26" s="25"/>
+      <c r="AC26" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="AC27" s="29" t="s">
+      <c r="D27" s="25"/>
+      <c r="AC27" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="AC28" s="29" t="s">
+      <c r="D28" s="25"/>
+      <c r="AC28" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="AC29" s="29" t="s">
+      <c r="D29" s="25"/>
+      <c r="AC29" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="AC30" s="29" t="s">
+      <c r="D30" s="25"/>
+      <c r="AC30" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="AC31" s="29" t="s">
+      <c r="D31" s="25"/>
+      <c r="AC31" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/aula/GRAMMAR-TSP.xlsx
+++ b/aula/GRAMMAR-TSP.xlsx
@@ -22,12 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="139">
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve"> -&gt; program id term BLOCO end_prog term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
   </si>
   <si>
     <t xml:space="preserve">BLOCO</t>
@@ -445,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -487,19 +490,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
@@ -565,8 +555,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF158466"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -678,13 +668,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -699,15 +701,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,11 +713,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -731,27 +725,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,35 +753,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -815,7 +809,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF158466"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -868,10 +862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53:I54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J65" activeCellId="0" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,16 +893,19 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -916,6 +913,9 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -931,16 +931,19 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -948,16 +951,19 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -965,6 +971,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -972,7 +981,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -980,6 +989,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -987,7 +999,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -995,6 +1007,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1002,7 +1017,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1010,6 +1025,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
+      <c r="J8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -1017,7 +1035,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1025,16 +1043,19 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1042,6 +1063,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
+      <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -1049,7 +1076,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1057,6 +1084,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -1064,7 +1094,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1072,6 +1102,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
+      <c r="J12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -1079,7 +1112,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1087,16 +1120,19 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
+      <c r="J13" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1104,16 +1140,19 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
+      <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1121,16 +1160,19 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
+      <c r="J15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1138,6 +1180,9 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
+      <c r="J16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1145,7 +1190,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1153,16 +1198,19 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1170,16 +1218,19 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
+      <c r="J18" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1187,6 +1238,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
+      <c r="J19" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -1194,7 +1248,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1202,6 +1256,9 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
+      <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -1209,7 +1266,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1217,6 +1274,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
+      <c r="J21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1224,7 +1284,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1232,6 +1292,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -1239,7 +1302,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1247,6 +1310,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
+      <c r="J23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -1254,7 +1320,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1262,16 +1328,19 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1279,6 +1348,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
+      <c r="J25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -1286,7 +1358,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1294,16 +1366,19 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
+      <c r="J26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1311,16 +1386,19 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1328,6 +1406,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
+      <c r="J28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -1335,7 +1416,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1343,16 +1424,19 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
+      <c r="J29" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>40</v>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1360,16 +1444,19 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
+      <c r="J30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1377,16 +1464,19 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
+      <c r="J31" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1394,6 +1484,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -1401,7 +1494,7 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1409,16 +1502,19 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>45</v>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1426,16 +1522,19 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
+      <c r="J34" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1443,16 +1542,19 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
+      <c r="J35" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1460,6 +1562,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
+      <c r="J36" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -1467,7 +1572,7 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1475,16 +1580,19 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
+      <c r="J37" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1492,16 +1600,19 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
+      <c r="J38" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1509,16 +1620,19 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
+      <c r="J39" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1526,6 +1640,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
+      <c r="J40" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -1533,7 +1650,7 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1541,16 +1658,19 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
+      <c r="J41" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1565,7 +1685,7 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1580,7 +1700,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1595,7 +1715,7 @@
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1610,7 +1730,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1619,47 +1739,47 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+      <c r="B47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>62</v>
+      <c r="B49" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1667,6 +1787,9 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
+      <c r="J49" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -1674,7 +1797,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1682,16 +1805,19 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
+      <c r="J50" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1699,6 +1825,9 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
+      <c r="J51" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -1706,7 +1835,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1714,16 +1843,19 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
+      <c r="J52" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1731,6 +1863,9 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
+      <c r="J53" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -1738,7 +1873,7 @@
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1746,16 +1881,19 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
+      <c r="J54" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1763,6 +1901,9 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
+      <c r="J55" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -1770,7 +1911,7 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -1778,16 +1919,19 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
+      <c r="J56" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1795,14 +1939,17 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1810,14 +1957,17 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1825,16 +1975,19 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
+      <c r="J59" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1842,6 +1995,9 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
+      <c r="J60" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -1849,7 +2005,7 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1857,16 +2013,19 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
+      <c r="J61" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1874,16 +2033,19 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
+      <c r="J62" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -1891,60 +2053,69 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
+      <c r="J63" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="B64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="B65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -2032,1087 +2203,1087 @@
   </sheetPr>
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="A53:I54 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="8" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="8" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="8" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="8" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="8" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="8" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="8" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="8" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="8" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="8" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="8" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="8" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="8" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="8" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="9" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="9" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="9" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="9" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="9" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="9" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="9" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="9" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="12"/>
+      <c r="AA1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="15"/>
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="15"/>
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="15"/>
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="15"/>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="15"/>
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="15"/>
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="15"/>
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="15"/>
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="18"/>
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="15"/>
+      <c r="A12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="15"/>
+      <c r="A13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="15"/>
+      <c r="A14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="15"/>
+      <c r="A15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="15"/>
+      <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="15"/>
+      <c r="A17" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="15"/>
+      <c r="A18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="15"/>
+      <c r="A19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="15"/>
+      <c r="A20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="15"/>
+      <c r="A21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="15"/>
+      <c r="A22" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="15"/>
+      <c r="A23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="15"/>
+      <c r="A24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="15"/>
+      <c r="A25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="15"/>
+      <c r="A26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="15"/>
+      <c r="A27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="15"/>
+      <c r="A28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="15"/>
+      <c r="A29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="15"/>
+      <c r="A30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="15"/>
+      <c r="A31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="15"/>
+      <c r="A32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3132,520 +3303,520 @@
   </sheetPr>
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A24" activeCellId="1" sqref="A53:I54 A24"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="40.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="19" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="40.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="20" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="AC2" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="AC4" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="AC5" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="AC6" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="AC8" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="AC9" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="AC11" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="AC14" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="AC17" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC18" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="AC19" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="AC20" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC21" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="AC2" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="19" t="s">
+      <c r="B22" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="AC22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="AC4" s="19" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="AC23" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC24" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="AC25" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="AC26" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="AC27" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="AC28" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="AC29" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="AC5" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="AC6" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="AC8" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="C30" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="AC9" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC10" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="AC11" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="AC14" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC16" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="AC17" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="AC19" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="AC20" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC21" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC22" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC23" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="D30" s="26"/>
+      <c r="AC30" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC24" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="AC25" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="AC26" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="AC27" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="AC28" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="AC29" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="AC30" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="AC31" s="19" t="s">
-        <v>122</v>
+      <c r="D31" s="26"/>
+      <c r="AC31" s="20" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="25"/>
+      <c r="A32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
